--- a/data/HR1_2/Shared ESS/HR1_ESS.xlsx
+++ b/data/HR1_2/Shared ESS/HR1_ESS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\HR1_2\Shared ESS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F52FBC4-ACD6-4123-812F-D2A2ED78CA01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373B6E8E-C8E2-4F25-BF16-222E7CFD708D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D5815E3E-A825-47B7-91B5-1362E9B2D293}"/>
+    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" firstSheet="2" activeTab="4" xr2:uid="{D5815E3E-A825-47B7-91B5-1362E9B2D293}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="5" r:id="rId1"/>
@@ -469,7 +469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B42D3D-D37A-4056-8A81-15E52DBED91C}">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -10260,7 +10260,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA5F5FC8-CF35-4F33-8EB9-D8A2EB0A0537}">
   <dimension ref="A1:Y3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10757,7 +10759,7 @@
   <dimension ref="A1:Y11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/HR1_2/Shared ESS/HR1_ESS.xlsx
+++ b/data/HR1_2/Shared ESS/HR1_ESS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\HR1_2\Shared ESS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA12992-47FD-4737-AD94-4792A5F574D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62134AB6-998E-4818-9BD5-C760E1DAA8F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1590,7 +1590,7 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1603,10 +1603,10 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <v>0.2</v>
